--- a/data/trans_camb/P54_A_1_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_1_R-Urba-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>45,28</t>
+          <t>41,23</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>48,57</t>
+          <t>45,18</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>42,56</t>
+          <t>41,82</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>48,61</t>
+          <t>48,97</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>43,84</t>
+          <t>41,55</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>48,58</t>
+          <t>47,21</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>37,1; 52,55</t>
+          <t>31,25; 51,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>39,56; 56,3</t>
+          <t>35,63; 55,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>35,91; 48,7</t>
+          <t>32,28; 49,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>42,87; 54,33</t>
+          <t>41,51; 56,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>39,02; 48,88</t>
+          <t>35,01; 48,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>43,51; 53,27</t>
+          <t>41,09; 53,71</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>105,19%</t>
+          <t>84,8%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>112,84%</t>
+          <t>92,92%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>87,4%</t>
+          <t>85,15%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>99,82%</t>
+          <t>99,7%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>95,18%</t>
+          <t>84,99%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>105,48%</t>
+          <t>96,56%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>74,49; 143,21</t>
+          <t>54,75; 130,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>81,48; 153,76</t>
+          <t>62,66; 140,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>66,61; 111,89</t>
+          <t>58,53; 115,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>79,18; 125,98</t>
+          <t>72,53; 132,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>78,14; 116,41</t>
+          <t>65,48; 110,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>87,64; 126,5</t>
+          <t>76,21; 126,03</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>50,12</t>
+          <t>48,06</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>51,88</t>
+          <t>49,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>55,11</t>
+          <t>55,7</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>54,23</t>
+          <t>54,95</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>52,75</t>
+          <t>52,19</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>53,08</t>
+          <t>52,06</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>40,72; 57,97</t>
+          <t>35,41; 58,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>42,9; 60,23</t>
+          <t>35,54; 59,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>48,35; 62,32</t>
+          <t>47,55; 64,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>45,0; 61,73</t>
+          <t>45,81; 63,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>46,92; 57,95</t>
+          <t>44,73; 59,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>47,28; 58,46</t>
+          <t>43,6; 58,64</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>123,86%</t>
+          <t>116,48%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>128,21%</t>
+          <t>118,77%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>137,29%</t>
+          <t>135,14%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>135,12%</t>
+          <t>133,32%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>130,9%</t>
+          <t>126,57%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>131,74%</t>
+          <t>126,25%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>91,6; 169,14</t>
+          <t>74,12; 174,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>94,51; 182,02</t>
+          <t>75,44; 178,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>104,39; 189,37</t>
+          <t>95,89; 193,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>96,31; 183,64</t>
+          <t>93,34; 190,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>105,83; 162,46</t>
+          <t>96,55; 167,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>106,49; 165,03</t>
+          <t>94,45; 167,5</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>51,11</t>
+          <t>28,67</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>63,44</t>
+          <t>55,18</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>44,11</t>
+          <t>50,79</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>40,81</t>
+          <t>45,11</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>47,78</t>
+          <t>39,31</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>52,64</t>
+          <t>49,95</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>19,19; 68,15</t>
+          <t>-24,05; 61,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>50,55; 76,88</t>
+          <t>33,72; 76,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>30,02; 59,07</t>
+          <t>33,47; 66,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>26,8; 55,98</t>
+          <t>24,8; 63,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>25,96; 58,34</t>
+          <t>9,97; 56,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>41,11; 62,82</t>
+          <t>36,99; 63,24</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>150,55%</t>
+          <t>63,97%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>186,86%</t>
+          <t>123,1%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>86,71%</t>
+          <t>103,2%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>80,23%</t>
+          <t>91,67%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>113,76%</t>
+          <t>83,33%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>125,34%</t>
+          <t>105,87%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>63,46; 289,58</t>
+          <t>-33,24; 201,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>109,37; 352,51</t>
+          <t>50,81; 320,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>49,05; 159,73</t>
+          <t>50,32; 200,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>43,19; 146,4</t>
+          <t>38,1; 188,53</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>58,92; 173,37</t>
+          <t>23,72; 155,93</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>78,79; 183,52</t>
+          <t>61,02; 179,84</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>47,88</t>
+          <t>42,59</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>51,63</t>
+          <t>47,81</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>47,69</t>
+          <t>48,27</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>50,04</t>
+          <t>50,95</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>47,8</t>
+          <t>45,64</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>50,79</t>
+          <t>49,45</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>41,24; 53,3</t>
+          <t>32,07; 49,91</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>45,88; 56,74</t>
+          <t>40,18; 54,54</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>42,75; 52,18</t>
+          <t>42,96; 54,21</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>44,9; 54,42</t>
+          <t>45,67; 56,76</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>44,1; 51,5</t>
+          <t>40,24; 50,83</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>47,19; 54,1</t>
+          <t>45,11; 54,28</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>116,88%</t>
+          <t>94,29%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>126,05%</t>
+          <t>105,84%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>104,78%</t>
+          <t>104,94%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>109,93%</t>
+          <t>110,78%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>110,28%</t>
+          <t>100,07%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>117,17%</t>
+          <t>108,43%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,39 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>91,51; 144,39</t>
+          <t>67,07; 124,86</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>102,01; 153,36</t>
+          <t>80,11; 138,27</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>87,04; 126,09</t>
+          <t>84,82; 131,52</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>90,05; 129,04</t>
+          <t>90,06; 140,55</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>96,46; 127,16</t>
+          <t>82,02; 121,73</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>102,47; 133,31</t>
+          <t>91,2; 131,51</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P54_A_1_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_1_R-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -599,467 +608,319 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>41,23</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>45,18</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>41,82</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>48,97</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>41,55</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>47,21</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>40.96816891715988</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>45.51617994019341</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>41.85481090651528</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>49.00564009925813</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>41.44950141062252</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>47.41004281037971</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>31,25; 51,85</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>35,63; 55,6</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>32,28; 49,66</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>41,51; 56,38</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>35,01; 48,06</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>41,09; 53,71</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>31.25697697101427</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>36.27403735549751</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>32.54463907828629</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>41.54487450984695</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>34.92450862515069</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>41.3267984987054</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>84,8%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>92,92%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>85,15%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>99,7%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>84,99%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>96,56%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>51.9038416300595</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>55.96510479601667</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>49.70574730024926</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>56.31121672910793</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>48.09093994786517</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>53.85484715024632</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>54,75; 130,01</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>62,66; 140,44</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>58,53; 115,51</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>72,53; 132,32</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>65,48; 110,82</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>76,21; 126,03</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.8425391124697291</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.9360721473143545</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.852148436718586</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.9977366686532069</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.8478232022622377</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.9697422875292973</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>48,06</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>49,0</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>55,7</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>54,95</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>52,19</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>52,06</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>0.5453788137009006</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>0.6355431329230834</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>0.5869037149381711</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>0.7279167644731432</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0.6489224640471363</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.7655887745470324</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>35,41; 58,66</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>35,54; 59,14</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>47,55; 64,46</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>45,81; 63,53</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>44,73; 59,41</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>43,6; 58,64</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>1.285303431592738</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>1.413810886351109</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>1.169771861625124</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>1.326718704189359</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>1.107114521917256</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>1.262290507859273</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>116,48%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>118,77%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>135,14%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>133,32%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>126,57%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>126,25%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>48.13771143059745</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>48.48905336456338</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>55.67113701532202</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>54.97032504740411</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>52.05557159219688</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>51.79437842007151</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>74,12; 174,94</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>75,44; 178,79</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>95,89; 193,28</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>93,34; 190,82</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>96,55; 167,84</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>94,45; 167,5</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>35.47891073049333</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>34.9488072807308</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>47.54457222556623</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>45.70978894470844</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>44.39741793100343</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>43.3571979697098</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>28,67</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>55,18</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>50,79</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>45,11</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>39,31</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>49,95</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>58.6741783242647</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>58.94402477300701</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>64.42793820718877</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>63.52484478288063</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>58.92107941271908</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>58.54653004742445</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-24,05; 61,6</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>33,72; 76,22</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>33,47; 66,71</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>24,8; 63,04</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>9,97; 56,54</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>36,99; 63,24</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>1.166845886097256</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>1.175362325248142</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>1.35060015740375</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>1.33359822776973</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>1.262361163757279</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>1.256027161331705</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>63,97%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>123,1%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>103,2%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>91,67%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>83,33%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>105,87%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>0.7484520475287318</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>0.7433611214444561</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>0.9584997991586984</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>0.933233550422507</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.9586962238043306</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.93801188549323</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-33,24; 201,0</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>50,81; 320,0</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>50,32; 200,38</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>38,1; 188,53</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>23,72; 155,93</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>61,02; 179,84</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>1.749131536610094</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>1.755189231981246</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>1.924219847130812</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>1.906803432385354</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>1.678058705582542</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.673936158511866</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1067,153 +928,317 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>42,59</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>47,81</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>48,27</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>50,95</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>45,64</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>49,45</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>28.65979435803723</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>55.17782261367077</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>50.78792066913989</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>44.85100708149229</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>40.10327328060942</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>49.72791323683182</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>32,07; 49,91</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>40,18; 54,54</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>42,96; 54,21</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>45,67; 56,76</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>40,24; 50,83</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>45,11; 54,28</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-24.3379189748186</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>33.72082357129263</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>33.4747821542628</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>24.563024739812</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>12.05616155207923</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>36.6040697427307</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>94,29%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>105,84%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>104,94%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>110,78%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>100,07%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>108,43%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>61.63708090811434</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>76.2210393337799</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>66.71426296504957</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>62.6931095732833</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>56.72016823622202</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>63.07320638447281</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>67,07; 124,86</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>80,11; 138,27</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>84,82; 131,52</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>90,06; 140,55</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>82,02; 121,73</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>91,2; 131,51</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.6394110243912083</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>1.231038424083789</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>1.03202143375583</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>0.9113820771512685</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>0.8500119457355049</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>1.054011725976584</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.3348289839491461</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>0.5080931417121898</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>0.5031693098263356</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>0.3752138376871558</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>0.2672222969915231</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>0.6084133282521513</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>1.992253281508982</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>3.200037891817261</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>2.003771365785291</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>1.881606177101464</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>1.571062034641468</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>1.796759928066215</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>42.68289454360202</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>47.70223226990829</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>48.23065053499793</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>50.94015113582063</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>45.62867538629668</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>49.40750431161075</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>33.306584286533</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>39.81756129378592</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>43.00613931402955</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>45.62449851419492</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>40.20335503028288</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>44.95718419446268</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>49.7720034252997</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>54.34134380503804</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>54.1409096511282</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>56.75763026011325</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>50.88519005338825</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>54.07983692196757</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.9449174058021086</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>1.056035914373288</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>1.048542197978754</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>1.10744718233823</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>1.000484748943984</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <v>1.08334187062542</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>0.6779927255067564</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>0.7886887707926358</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>0.8504942227209364</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>0.8999503475992958</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <v>0.8211504435509066</v>
+      </c>
+      <c r="H26" s="6" t="n">
+        <v>0.9090751923498767</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>1.24918443683361</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>1.378107874634497</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>1.314522834314819</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>1.403635493645278</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <v>1.221219844324102</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <v>1.308001322273689</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1221,14 +1246,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
